--- a/data/portopt_inputs.xlsx
+++ b/data/portopt_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25del\Python Projects\pyfinlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15419D-4F26-4988-8607-45DDD12DA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB448AD-A599-4B1D-96A3-9A46DDBB5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -1100,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1111,7 +1109,7 @@
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.42578125" customWidth="1"/>
@@ -2297,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
